--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43427-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43427-2019.xlsx", "A 43427-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43427-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43427-2019.png", "A 43427-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43427-2019.docx", "A 43427-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43427-2019.docx", "A 43427-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43427-2019.docx", "A 43427-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43427-2019.docx", "A 43427-2019")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,27 +756,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 9135-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 9135-2019.xlsx", "A 9135-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 9135-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 9135-2019.png", "A 9135-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 9135-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 9135-2019.docx", "A 9135-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 9135-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 9135-2019.docx", "A 9135-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 9135-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 9135-2019.docx", "A 9135-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 9135-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 9135-2019.docx", "A 9135-2019")</f>
         <v/>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,27 +849,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43448-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43448-2019.xlsx", "A 43448-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43448-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43448-2019.png", "A 43448-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43448-2019.docx", "A 43448-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43448-2019.docx", "A 43448-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43448-2019.docx", "A 43448-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43448-2019.docx", "A 43448-2019")</f>
         <v/>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,27 +937,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 32397-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 32397-2021.xlsx", "A 32397-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 32397-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 32397-2021.png", "A 32397-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 32397-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 32397-2021.docx", "A 32397-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 32397-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 32397-2021.docx", "A 32397-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 32397-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 32397-2021.docx", "A 32397-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 32397-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 32397-2021.docx", "A 32397-2021")</f>
         <v/>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,27 +1025,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 44523-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 44523-2022.xlsx", "A 44523-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 44523-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 44523-2022.png", "A 44523-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 44523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 44523-2022.docx", "A 44523-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 44523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 44523-2022.docx", "A 44523-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 44523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 44523-2022.docx", "A 44523-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 44523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 44523-2022.docx", "A 44523-2022")</f>
         <v/>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,27 +1112,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 48098-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 48098-2018.xlsx", "A 48098-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 48098-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 48098-2018.png", "A 48098-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 48098-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 48098-2018.docx", "A 48098-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 48098-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 48098-2018.docx", "A 48098-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 48098-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 48098-2018.docx", "A 48098-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 48098-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 48098-2018.docx", "A 48098-2018")</f>
         <v/>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,27 +1199,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 1383-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 1383-2021.xlsx", "A 1383-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 1383-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 1383-2021.png", "A 1383-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 1383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 1383-2021.docx", "A 1383-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 1383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 1383-2021.docx", "A 1383-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 1383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 1383-2021.docx", "A 1383-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 1383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 1383-2021.docx", "A 1383-2021")</f>
         <v/>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,27 +1290,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43855-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 43855-2019.xlsx", "A 43855-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43855-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 43855-2019.png", "A 43855-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 43855-2019.docx", "A 43855-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 43855-2019.docx", "A 43855-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 43855-2019.docx", "A 43855-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 43855-2019.docx", "A 43855-2019")</f>
         <v/>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,27 +1376,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 58360-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 58360-2020.xlsx", "A 58360-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 58360-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 58360-2020.png", "A 58360-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 58360-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 58360-2020.docx", "A 58360-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 58360-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 58360-2020.docx", "A 58360-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 58360-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 58360-2020.docx", "A 58360-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 58360-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 58360-2020.docx", "A 58360-2020")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,27 +1462,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 29122-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 29122-2022.xlsx", "A 29122-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 29122-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 29122-2022.png", "A 29122-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 29122-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 29122-2022.docx", "A 29122-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 29122-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 29122-2022.docx", "A 29122-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 29122-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 29122-2022.docx", "A 29122-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 29122-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 29122-2022.docx", "A 29122-2022")</f>
         <v/>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,27 +1548,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 17693-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 17693-2023.xlsx", "A 17693-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 17693-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 17693-2023.png", "A 17693-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 17693-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 17693-2023.docx", "A 17693-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 17693-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 17693-2023.docx", "A 17693-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 17693-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 17693-2023.docx", "A 17693-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 17693-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 17693-2023.docx", "A 17693-2023")</f>
         <v/>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,27 +1633,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 15748-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 15748-2019.xlsx", "A 15748-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 15748-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 15748-2019.png", "A 15748-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 15748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 15748-2019.docx", "A 15748-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 15748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 15748-2019.docx", "A 15748-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 15748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 15748-2019.docx", "A 15748-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 15748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 15748-2019.docx", "A 15748-2019")</f>
         <v/>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,27 +1718,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 50047-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 50047-2019.xlsx", "A 50047-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 50047-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 50047-2019.png", "A 50047-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 50047-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 50047-2019.docx", "A 50047-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 50047-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 50047-2019.docx", "A 50047-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 50047-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 50047-2019.docx", "A 50047-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 50047-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 50047-2019.docx", "A 50047-2019")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,27 +1803,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 38818-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 38818-2020.xlsx", "A 38818-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 38818-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 38818-2020.png", "A 38818-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 38818-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 38818-2020.docx", "A 38818-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 38818-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 38818-2020.docx", "A 38818-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 38818-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 38818-2020.docx", "A 38818-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 38818-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 38818-2020.docx", "A 38818-2020")</f>
         <v/>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,27 +1888,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 41475-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 41475-2020.xlsx", "A 41475-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 41475-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 41475-2020.png", "A 41475-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 41475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 41475-2020.docx", "A 41475-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 41475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 41475-2020.docx", "A 41475-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 41475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 41475-2020.docx", "A 41475-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 41475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 41475-2020.docx", "A 41475-2020")</f>
         <v/>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 65769-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 65769-2020.xlsx", "A 65769-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 65769-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 65769-2020.png", "A 65769-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 65769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 65769-2020.docx", "A 65769-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 65769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 65769-2020.docx", "A 65769-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 65769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 65769-2020.docx", "A 65769-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 65769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 65769-2020.docx", "A 65769-2020")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,27 +2058,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 36083-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 36083-2021.xlsx", "A 36083-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 36083-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 36083-2021.png", "A 36083-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 36083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 36083-2021.docx", "A 36083-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 36083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 36083-2021.docx", "A 36083-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 36083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 36083-2021.docx", "A 36083-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 36083-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 36083-2021.docx", "A 36083-2021")</f>
         <v/>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,27 +2143,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 35454-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 35454-2022.xlsx", "A 35454-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 35454-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 35454-2022.png", "A 35454-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 35454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 35454-2022.docx", "A 35454-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 35454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 35454-2022.docx", "A 35454-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 35454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 35454-2022.docx", "A 35454-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 35454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 35454-2022.docx", "A 35454-2022")</f>
         <v/>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,27 +2228,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 58906-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 58906-2022.xlsx", "A 58906-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 58906-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 58906-2022.png", "A 58906-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 58906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 58906-2022.docx", "A 58906-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 58906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 58906-2022.docx", "A 58906-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 58906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 58906-2022.docx", "A 58906-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 58906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 58906-2022.docx", "A 58906-2022")</f>
         <v/>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2313,27 +2313,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 20209-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/artfynd/A 20209-2023.xlsx", "A 20209-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 20209-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/kartor/A 20209-2023.png", "A 20209-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 20209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomål/A 20209-2023.docx", "A 20209-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 20209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/klagomålsmail/A 20209-2023.docx", "A 20209-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 20209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsyn/A 20209-2023.docx", "A 20209-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 20209-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MELLERUD/tillsynsmail/A 20209-2023.docx", "A 20209-2023")</f>
         <v/>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -572,7 +572,7 @@
         <v>43703</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44208</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>43703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44144</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44750</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43542</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43731</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44172</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44389</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44896</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45055</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43335</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>43343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>43390</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43428</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>43434</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>43437</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>43453</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>43511</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43522</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>43542</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>43542</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43542</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43542</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43557</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43557</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43578</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43579</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43612</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43614</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43630</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43636</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43641</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43651</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43669</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43676</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43788</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43805</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43837</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43846</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43858</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43874</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43964</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43969</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43971</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43988</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43990</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43997</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44007</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44007</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44098</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44105</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44109</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44113</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44123</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44131</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44144</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44165</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44187</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44217</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44221</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44239</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44264</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44279</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44284</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44305</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44307</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44307</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44326</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44335</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44335</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44335</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44389</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44389</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44439</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44442</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44456</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44461</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44463</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44466</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44484</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44484</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44508</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44509</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44539</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>44539</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>44542</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>44636</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>44655</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>44655</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44657</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44659</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44659</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44676</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44677</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44720</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44732</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44754</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44754</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44783</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44783</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>44788</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44817</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44831</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44867</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44868</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44883</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44903</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44914</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44914</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44952</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44953</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44965</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44965</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44974</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44974</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44987</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45016</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45021</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45030</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45036</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>45042</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45048</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>45054</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45056</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45057</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>45063</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45071</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45089</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45092</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45092</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45097</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45097</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45097</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45097</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45106</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45106</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45126</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45126</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45132</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
